--- a/assets/evidencija-randog-vremena.xlsx
+++ b/assets/evidencija-randog-vremena.xlsx
@@ -5,148 +5,153 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Evidencija" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
-    <t>POSLODAVAC</t>
-  </si>
-  <si>
-    <t>Mjesec</t>
-  </si>
-  <si>
-    <t>SIJEČANJ</t>
-  </si>
-  <si>
-    <t>RADNIK</t>
-  </si>
-  <si>
-    <t>OIB</t>
-  </si>
-  <si>
-    <t>Adresa</t>
-  </si>
-  <si>
-    <t>DANA</t>
-  </si>
-  <si>
-    <t>SATI</t>
-  </si>
-  <si>
-    <t>Datum u mjesecu</t>
-  </si>
-  <si>
-    <t>Dan u mjesecu</t>
-  </si>
-  <si>
-    <t>Početak rada</t>
-  </si>
-  <si>
-    <t>Završetak rada</t>
-  </si>
-  <si>
-    <t>Vrijeme  i sati zastoja, prekda rada i sl. Krivnjom poslodavca</t>
-  </si>
-  <si>
-    <t>Ukupno dnevno radno vrijeme</t>
-  </si>
-  <si>
-    <t>Vrijeme terenskog rada</t>
-  </si>
-  <si>
-    <t>Vrijeme pripravnosti</t>
-  </si>
-  <si>
-    <t>Vrijeme korištenja dnevnog odmora (sati)</t>
-  </si>
-  <si>
-    <t>Vrijeme korištenja tjednog odmora (sati)</t>
-  </si>
-  <si>
-    <t>Vrijeme korištenja godišnjeg odmora</t>
-  </si>
-  <si>
-    <t>REDOVAN RAD</t>
-  </si>
-  <si>
-    <t>RAD NOĆU</t>
-  </si>
-  <si>
-    <t>OSTALO VRIJEME NENAZOČNOSTI NA POSLU</t>
-  </si>
-  <si>
-    <t>I smjena</t>
-  </si>
-  <si>
-    <t>II smjena</t>
-  </si>
-  <si>
-    <t>Dvokratni rad</t>
-  </si>
-  <si>
-    <t>Prekovremeno</t>
-  </si>
-  <si>
-    <t>NED I-smjena</t>
-  </si>
-  <si>
-    <t>NED II smjena</t>
-  </si>
-  <si>
-    <t>Blagdan I-smj</t>
-  </si>
-  <si>
-    <t>Blagdan II-smj</t>
-  </si>
-  <si>
-    <t>Redovan rad</t>
-  </si>
-  <si>
-    <t>Nedjelja</t>
-  </si>
-  <si>
-    <t>Blagdan</t>
-  </si>
-  <si>
-    <t>Neradni dani i blagdani utvrđeni propisom</t>
-  </si>
-  <si>
-    <t>Vrijeme mirovanja radnig odnosa ili korištenje drgih prava u skladu s posebnim propisom</t>
-  </si>
-  <si>
-    <t>Vrijeme plaćenog dopusta</t>
-  </si>
-  <si>
-    <t>Vrijeme neplaćenog dopusta</t>
-  </si>
-  <si>
-    <t>Vrijeme spriječenosti za rad zbog privremene nesposobnosit za rad-bolovanje</t>
-  </si>
-  <si>
-    <t>vrijeme korištenja rodiljnog i roditeljskog dopusta te drugih prava prema posebnom propisu</t>
-  </si>
-  <si>
-    <t>Vrijeme isključenja s rada (lockout)</t>
-  </si>
-  <si>
-    <t>Vrijeme provedeno u štrajku</t>
-  </si>
-  <si>
-    <t>vrijeme nenazočnosti u tijeku dnevnog radnog vremena po zahtjevu radnika</t>
-  </si>
-  <si>
-    <t>Vrijeme nenazočnosit u tijeku dnevnog radnog vremena u kojima radnik nsvojom krivnjom neobavlja rad</t>
-  </si>
-  <si>
-    <t>UKUPNO:</t>
+    <t xml:space="preserve">POSLODAVAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjesec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIJEČANJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADNIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum u mjesecu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan u mjesecu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Početak rada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Završetak rada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme  i sati zastoja, prekda rada i sl. Krivnjom poslodavca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukupno dnevno radno vrijeme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme terenskog rada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme pripravnosti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme korištenja dnevnog odmora (sati)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme korištenja tjednog odmora (sati)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme korištenja godišnjeg odmora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDOVAN RAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD NOĆU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTALO VRIJEME NENAZOČNOSTI NA POSLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I smjena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II smjena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dvokratni rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prekovremeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NED I-smjena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NED II smjena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blagdan I-smj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blagdan II-smj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redovan rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nedjelja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blagdan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neradni dani i blagdani utvrđeni propisom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme mirovanja radnig odnosa ili korištenje drgih prava u skladu s posebnim propisom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme plaćenog dopusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme neplaćenog dopusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme spriječenosti za rad zbog privremene nesposobnosit za rad-bolovanje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrijeme korištenja rodiljnog i roditeljskog dopusta te drugih prava prema posebnom propisu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme isključenja s rada (lockout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme provedeno u štrajku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrijeme nenazočnosti u tijeku dnevnog radnog vremena po zahtjevu radnika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijeme nenazočnosit u tijeku dnevnog radnog vremena u kojima radnik nsvojom krivnjom neobavlja rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKUPNO:</t>
   </si>
 </sst>
 </file>
@@ -154,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -219,13 +224,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -282,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,15 +329,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,49 +356,49 @@
   </sheetPr>
   <dimension ref="B1:AK38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="14.65" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.94387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.93367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.52040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.51020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="3.38265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.66326530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.0969387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.0765306122449"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="6.9030612244898"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.38265306122449"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="5.9234693877551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="2.81632653061224"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="2.95918367346939"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="5.77551020408163"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="6.76530612244898"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="3.11224489795918"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="7.46938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="7.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="38" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -851,8 +841,8 @@
       <c r="AK10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1845,131 +1835,131 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="14" t="n">
+      <c r="F37" s="12" t="n">
         <f aca="false">SUM(F6:F36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="15" t="str">
+      <c r="G37" s="13" t="str">
         <f aca="false">IF(SUM(G6:G36)&gt;0,SUM(G6:G36),"")</f>
         <v/>
       </c>
-      <c r="H37" s="15" t="str">
+      <c r="H37" s="13" t="str">
         <f aca="false">IF(SUM(H6:H36)&gt;0,SUM(H6:H36),"")</f>
         <v/>
       </c>
-      <c r="I37" s="15" t="str">
+      <c r="I37" s="13" t="str">
         <f aca="false">IF(SUM(I6:I36)&gt;0,SUM(I6:I36),"")</f>
         <v/>
       </c>
-      <c r="J37" s="15" t="str">
+      <c r="J37" s="13" t="str">
         <f aca="false">IF(SUM(J6:J36)&gt;0,SUM(J6:J36),"")</f>
         <v/>
       </c>
-      <c r="K37" s="15" t="str">
+      <c r="K37" s="13" t="str">
         <f aca="false">IF(SUM(K6:K36)&gt;0,SUM(K6:K36),"")</f>
         <v/>
       </c>
-      <c r="L37" s="15" t="str">
+      <c r="L37" s="13" t="str">
         <f aca="false">IF(SUM(L6:L36)&gt;0,SUM(L6:L36),"")</f>
         <v/>
       </c>
-      <c r="M37" s="15" t="str">
+      <c r="M37" s="13" t="str">
         <f aca="false">IF(SUM(M6:M36)&gt;0,SUM(M6:M36),"")</f>
         <v/>
       </c>
-      <c r="N37" s="15" t="str">
+      <c r="N37" s="13" t="str">
         <f aca="false">IF(SUM(N6:N36)&gt;0,SUM(N6:N36),"")</f>
         <v/>
       </c>
-      <c r="O37" s="15" t="str">
+      <c r="O37" s="13" t="str">
         <f aca="false">IF(SUM(O6:O36)&gt;0,SUM(O6:O36),"")</f>
         <v/>
       </c>
-      <c r="P37" s="15" t="str">
+      <c r="P37" s="13" t="str">
         <f aca="false">IF(SUM(P6:P36)&gt;0,SUM(P6:P36),"")</f>
         <v/>
       </c>
-      <c r="Q37" s="15" t="str">
+      <c r="Q37" s="13" t="str">
         <f aca="false">IF(SUM(Q6:Q36)&gt;0,SUM(Q6:Q36),"")</f>
         <v/>
       </c>
-      <c r="R37" s="15" t="str">
+      <c r="R37" s="13" t="str">
         <f aca="false">IF(SUM(R6:R36)&gt;0,SUM(R6:R36),"")</f>
         <v/>
       </c>
-      <c r="S37" s="15" t="str">
+      <c r="S37" s="13" t="str">
         <f aca="false">IF(SUM(S6:S36)&gt;0,SUM(S6:S36),"")</f>
         <v/>
       </c>
-      <c r="T37" s="15" t="str">
+      <c r="T37" s="13" t="str">
         <f aca="false">IF(SUM(T6:T36)&gt;0,SUM(T6:T36),"")</f>
         <v/>
       </c>
-      <c r="U37" s="15" t="str">
+      <c r="U37" s="13" t="str">
         <f aca="false">IF(SUM(U6:U36)&gt;0,SUM(U6:U36),"")</f>
         <v/>
       </c>
-      <c r="V37" s="15" t="str">
+      <c r="V37" s="13" t="str">
         <f aca="false">IF(SUM(V6:V36)&gt;0,SUM(V6:V36),"")</f>
         <v/>
       </c>
-      <c r="W37" s="15" t="str">
+      <c r="W37" s="13" t="str">
         <f aca="false">IF(SUM(W6:W36)&gt;0,SUM(W6:W36),"")</f>
         <v/>
       </c>
-      <c r="X37" s="15" t="str">
+      <c r="X37" s="13" t="str">
         <f aca="false">IF(SUM(X6:X36)&gt;0,SUM(X6:X36),"")</f>
         <v/>
       </c>
-      <c r="Y37" s="15" t="str">
+      <c r="Y37" s="13" t="str">
         <f aca="false">IF(SUM(Y6:Y36)&gt;0,SUM(Y6:Y36),"")</f>
         <v/>
       </c>
-      <c r="Z37" s="15" t="str">
+      <c r="Z37" s="13" t="str">
         <f aca="false">IF(SUM(Z6:Z36)&gt;0,SUM(Z6:Z36),"")</f>
         <v/>
       </c>
-      <c r="AA37" s="15" t="str">
+      <c r="AA37" s="13" t="str">
         <f aca="false">IF(SUM(AA6:AA36)&gt;0,SUM(AA6:AA36),"")</f>
         <v/>
       </c>
-      <c r="AB37" s="15" t="str">
+      <c r="AB37" s="13" t="str">
         <f aca="false">IF(SUM(AB6:AB36)&gt;0,SUM(AB6:AB36),"")</f>
         <v/>
       </c>
-      <c r="AC37" s="15" t="str">
+      <c r="AC37" s="13" t="str">
         <f aca="false">IF(SUM(AC6:AC36)&gt;0,SUM(AC6:AC36),"")</f>
         <v/>
       </c>
-      <c r="AD37" s="15" t="str">
+      <c r="AD37" s="13" t="str">
         <f aca="false">IF(SUM(AD6:AD36)&gt;0,SUM(AD6:AD36),"")</f>
         <v/>
       </c>
-      <c r="AE37" s="15" t="str">
+      <c r="AE37" s="13" t="str">
         <f aca="false">IF(SUM(AE6:AE36)&gt;0,SUM(AE6:AE36),"")</f>
         <v/>
       </c>
-      <c r="AF37" s="15" t="str">
+      <c r="AF37" s="13" t="str">
         <f aca="false">IF(SUM(AF6:AF36)&gt;0,SUM(AF6:AF36),"")</f>
         <v/>
       </c>
-      <c r="AG37" s="15" t="str">
+      <c r="AG37" s="13" t="str">
         <f aca="false">IF(SUM(AG6:AG36)&gt;0,SUM(AG6:AG36),"")</f>
         <v/>
       </c>
-      <c r="AH37" s="15" t="str">
+      <c r="AH37" s="13" t="str">
         <f aca="false">IF(SUM(AH6:AH36)&gt;0,SUM(AH6:AH36),"")</f>
         <v/>
       </c>
-      <c r="AI37" s="15" t="str">
+      <c r="AI37" s="13" t="str">
         <f aca="false">IF(SUM(AI6:AI36)&gt;0,SUM(AI6:AI36),"")</f>
         <v/>
       </c>
-      <c r="AJ37" s="15" t="n">
+      <c r="AJ37" s="13" t="n">
         <f aca="false">SUM(M37:AI37)</f>
         <v>0</v>
       </c>
-      <c r="AK37" s="15"/>
+      <c r="AK37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="11.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2008,7 +1998,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.145138888888889" right="0.114583333333333" top="0.424305555555556" bottom="0.409027777777778" header="0.186805555555556" footer="0.171527777777778"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CStranica &amp;P</oddFooter>
